--- a/bab-generator/data.xlsx
+++ b/bab-generator/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bab</t>
   </si>
@@ -70,100 +70,55 @@
     <t>Subjudul 1</t>
   </si>
   <si>
-    <t>Subjudul 2</t>
-  </si>
-  <si>
-    <t>Subjudul 3</t>
-  </si>
-  <si>
-    <t>Subjudul 4</t>
-  </si>
-  <si>
-    <t>Subjudul 5</t>
-  </si>
-  <si>
-    <t>Subjudul 6</t>
-  </si>
-  <si>
-    <t>Subjudul 7</t>
-  </si>
-  <si>
-    <t>Subjudul 8</t>
-  </si>
-  <si>
-    <t>Subjudul 9</t>
-  </si>
-  <si>
-    <t>Subjudul 10</t>
-  </si>
-  <si>
-    <t>Subjudul 11</t>
-  </si>
-  <si>
-    <t>Subjudul 12</t>
-  </si>
-  <si>
-    <t>Subjudul 13</t>
-  </si>
-  <si>
-    <t>Subjudul 14</t>
-  </si>
-  <si>
-    <t>Subjudul 15</t>
-  </si>
-  <si>
-    <t>Halaman</t>
-  </si>
-  <si>
-    <t>PEMBAHASAN</t>
-  </si>
-  <si>
-    <t>Random content for variety. setidaknya</t>
-  </si>
-  <si>
-    <t>bbBvnrrEBnaKfUQ</t>
-  </si>
-  <si>
-    <t>KQfpwEGnNjzMvZB</t>
-  </si>
-  <si>
-    <t>cgpkweVKzJqDiBx</t>
-  </si>
-  <si>
-    <t>rpqJbrhARaZfHXS</t>
-  </si>
-  <si>
-    <t>VPYfTvPLPJPEJMX</t>
-  </si>
-  <si>
-    <t>AMjWYfAChtGcnpC</t>
-  </si>
-  <si>
-    <t>mPCtMRSKyWYFFVe</t>
-  </si>
-  <si>
-    <t>wSHiwjqgUCLQXrj</t>
-  </si>
-  <si>
-    <t>DRKnTpxzZRjQmQC</t>
-  </si>
-  <si>
-    <t>vHAhjtURgxkXvYv</t>
-  </si>
-  <si>
-    <t>nSLrHHwTativYBD</t>
-  </si>
-  <si>
-    <t>LQjzjBfkVztmFpc</t>
-  </si>
-  <si>
-    <t>TAUgihKzdfySwaf</t>
-  </si>
-  <si>
-    <t>jtxDCqtAgMMmQuZ</t>
-  </si>
-  <si>
-    <t>ufjZDARmhSrLAfE</t>
+    <t>kesimpulan nya adalah bla bla bla</t>
+  </si>
+  <si>
+    <t>"Tabel IX Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  No.	Aspek Yang Diamati	Nilai Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Nilai tertinggi adalah 5 Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: PEND. AKHIR menginterpretasi dan ekstrapolasi. Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 BAB II Sesuai dengan namanya, apakah bahan kajian ini didesain? P =(Post Rate – Base Rate)/(Base Rate)x 100% Tabel VIII Hasil Observasi Aktivitas Siswa kelas eksperimen Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% NO	INDENTITAS SEKOLAH	KETERANGAN JABATAN	 Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Pengamatan = Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Kelemahan media: BAB IV  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Tabel II PENDAHULUAN Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  BAB III Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi JABATAN Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Persentase	Kondisi Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Total Nilai	38 PENDAHULUAN Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  NO	 Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Gambar 1 Jawaban Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Total Nilai	38 Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: TINJAUAN PUSTAKA Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Artinya adalah: Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: NO	INDENTITAS SEKOLAH	KETERANGAN Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: NO	Aspek Yang Di Minati	Nilai Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Tabel V HASIL PENELITIAN  Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. No.	Nama	Nilai	Ket. Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  menginterpretasi dan ekstrapolasi. Total Nilai	38 NO	 Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Hasil Tes kelas kontrol Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. NO	NAMA 	JENIS KELAMIN	NIP Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  NAMA	JENIS Tabel VI Tabel VIII Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Persentase	Kondisi Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  NO	INDENTITAS SEKOLAH	KETERANGAN Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Tabel II Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Tabel IV Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  NO	NAMA 	JENIS KELAMIN	NIP menginterpretasi dan ekstrapolasi. TINJAUAN PUSTAKA Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya. " "Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Tahun Ajaran 2021/2022 Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization):  Tahun Pelajaran 2021/2022 Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  JENIS KELAMIN	 Persentase Observasi	84,44 % Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. BAB I Tabel VII  BAB III Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Skor rata-rata hasil Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Tahun Pelajaran 2021/2022 Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  d) Refleksi Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Tabel VIII NAMA	 Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Tahun Pelajaran 2021/2022 Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ</t>
+  </si>
+  <si>
+    <t>"Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Sesuai dengan namanya, apakah bahan kajian ini didesain? Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Nilai tertinggi adalah 5 Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Tabel 3.3 Klasifikasi hasil pengujian Hasil Observasi Aktivitas Siswa kelas eksperimen Artinya: Tahun Pelajaran 2021/2022 Pengamatan = Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar No.	Nama	Nilai	Ket. Nilai tertinggi adalah 5 اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil.  Tahun Pelajaran 2021/2022 Tahun Pelajaran 2021/2022 Total Nilai	38 Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: B.	Hasil ujian siswa Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. JENIS KELAMIN	PEND. Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. NAMA	 Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. P =(Post Rate – Base Rate)/(Base Rate)x 100% Artinya adalah: Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  JABATAN Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  P =(Post Rate – Base Rate)/(Base Rate)x 100% Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Persentase	Kondisi Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Pengamatan = Tabel III Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. METODE PENELITIAN Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Tabel IV Total Nilai	38 Tabel IV Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   NAMA	 BAB IV  Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 Nilai tertinggi adalah 5 Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Hasil Observasi Aktivitas Siswa kelas kontrol Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar" "Artinya adalah: Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. NO	 Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. BAB IV  Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  KELAS NO	 Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: No.	Nama	Nilai	Ket. No.	Nama	Nilai	Ket. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Jumlah nilai faktor terbaik x faktor Tabel IX Tabel VIII TINJAUAN PUSTAKA Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Tabel VIII Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: KELAS BAB III Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karen</t>
+  </si>
+  <si>
+    <t>"TINJAUAN PUSTAKA Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  No.	Nama	Nilai	Ket. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. NO	INDENTITAS SEKOLAH	KETERANGAN Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, P =(Post Rate – Base Rate)/(Base Rate)x 100% Sesuai dengan namanya, apakah bahan kajian ini didesain? Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Total Nilai	38 Hasil Tes kelas kontrol Tabel II NAMA	 P =(Post Rate – Base Rate)/(Base Rate)x 100% Persentase	Kondisi Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Artinya: Jumlah nilai faktor terbaik x faktor NAMA	 NAMA	 Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Tabel X  B.	Hasil ujian siswa B.	Hasil ujian siswa Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ NO	NAMA 	JENIS KELAMIN	NIP Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi P =(Post Rate – Base Rate)/(Base Rate)x 100% Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Artinya: Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 HASIL PENELITIAN  Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. NO	NAMA 	JENIS KELAMIN	NIP Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  Tahun Ajaran 2021/2022 Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): NO	 Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Rumus untuk mengukurskor rata-rata = persentase Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Kelemahan media: Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: BAB II NO	 Artinya adalah: JABATAN Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.   Hasil Tes kelas eksperimen NO	 Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. NO	 Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. BAB I Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa No.	Aspek Yang Diamati	Nilai" "Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Tabel V BAB III Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Tahun Pelajaran 2021/2022 Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  BAB III Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. Total Nilai	38 Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Hasil Observasi Aktivitas Siswa kelas kontrol Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: PEND. AKHIR Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eks</t>
+  </si>
+  <si>
+    <t>"Jumlah nilai faktor terbaik x faktor Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: PEND. AKHIR PENDAHULUAN Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. JENIS KELAMIN	PEND. BAB IV  Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  JABATAN NO	 Tahun Ajaran 2021/2022 Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian BAB I Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. NO	INDENTITAS SEKOLAH	KETERANGAN Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. NO	 Tabel V Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Pengamatan = Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Dari rumusan masalah diatas , maka tujuan proposal ini adalah : NO	 KELAS Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. JENIS KELAMIN	PEND. Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  d) Refleksi No.	Nama	Nilai	Ket.  Tahun Pelajaran 2021/2022 Tabel V Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022   Tahun Pelajaran 2021/2022 Tahun Ajaran 2021/2022 Tabel II Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Pengamatan = METODE PENELITIAN Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Artinya adalah: Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. BAB II Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. BAB I Dari rumusan masalah diatas , maka tujuan proposal ini adalah : PENUTUP Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman JENIS KELAMIN	 Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Persentase kejujuran siswa B.	Hasil ujian siswa P =(Post Rate – Base Rate)/(Base Rate)x 100%  Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Persentase Observasi	84,44 % Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. BAB III Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Pengamatan = Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. PENDAHULUAN Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Tabel VI HASIL PENELITIAN " "Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  P =(Post Rate – Base Rate)/(Base Rate)x 100% Persentase	Kondisi Hasil Tes kelas kontrol Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: NO	 Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Tabel I Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. Tabel I Persentase kejujuran siswa Persentase Observasi	84,44 % Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  PENUTUP Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup.  Tahun Pelajaran 2021/2022 B.	Hasil ujian siswa NAMA	 MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: BAB III Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  NO	 Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil be</t>
+  </si>
+  <si>
+    <t>"Nilai tertinggi adalah 5 Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Tabel 3.3 Klasifikasi hasil pengujian NO	 Hasil Tes kelas kontrol Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ NO	Aspek Yang Di Minati	Nilai Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Kelemahan media: Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian HASIL PENELITIAN  NAMA	 PEND. AKHIR Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Tabel IV Tabel VII  Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Hasil Observasi Aktivitas Siswa kelas kontrol Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. B.	Hasil ujian siswa Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Tabel II Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Hasil Tes kelas kontrol Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  HASIL PENELITIAN  Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: METODE PENELITIAN Gambar 1 Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Persentase Observasi	84,44 % Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Artinya adalah: Tahun Pelajaran 2021/2022 Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  No.	Nama	Nilai	Ket. Tabel I Persentase	Kondisi Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. NAMA	 Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  B.	Hasil ujian siswa Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: JABATAN NO	INDENTITAS SEKOLAH	KETERANGAN Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Tabel III PENUTUP Skor rata-rata hasil Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 P =(Post Rate – Base Rate)/(Base Rate)x 100% Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. B.	Hasil ujian siswa Tabel VIII" "NO	INDENTITAS SEKOLAH	KETERANGAN Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Persentase kejujuran siswa NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN KELAS Persentase	Kondisi Tabel VI Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). KELAS Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: JABATAN maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   Tabel I Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Tahun Ajaran 2021/2022 Tabel II Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Gambar 1 Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Hasil Observasi Aktivitas Siswa kelas eksperimen Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Tabel VIII Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Gambar 1 Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar JENIS KELAMIN	 Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: METODE PENELITIAN NO	 JABATAN	 Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. No.	Aspek Yang Diamati	Nilai Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Nilai tertinggi adalah 5 Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Persentase Observasi	84,44 % Pengamatan = Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. PEND. AKHIR Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Pengamatan = Persentase Observasi	84,44 % Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Persentase Observasi	84,44 % Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa.  Hasil Tes kelas eksperimen Media yang memiliki arti perantara atau alat peng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Sumber Data: Kantor MIT Insan Cendikia Kota Makassar No.	Nama	Nilai	Ket. Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  P =(Post Rate – Base Rate)/(Base Rate)x 100% Sesuai dengan namanya, apakah bahan kajian ini didesain? Tabel VI Jawaban BAB I Hasil Tes kelas kontrol Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Sumber Data: Arsip MIT Insan Cendikia Kota Makassar PENDAHULUAN Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Persentase	Kondisi Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). NAMA	 Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar No.	Nama	Nilai	Ket. JABATAN Tabel VII  BAB III Nilai tertinggi adalah 5 Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  P =(Post Rate – Base Rate)/(Base Rate)x 100% Total Nilai	38 Tabel II PEND. AKHIR Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  PENDAHULUAN KELAS Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  B.	Hasil ujian siswa Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. BAB IV  JENIS KELAMIN	 Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Dari rumusan masalah diatas , maka tujuan proposal ini adalah : MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Persentase kejujuran siswa Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  NO	 BAB IV  Hasil Observasi Aktivitas Siswa kelas eksperimen Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Persentase Observasi	84,44 % Sesuai dengan namanya, apakah bahan kajian ini didesain? Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Tabel V Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. NAMA	JENIS Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: P =(Post Rate – Base Rate)/(Base Rate)x 100% NO	NAMA 	JENIS KELAMIN	NIP No.	Aspek Yang Diamati	Nilai Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung JABATAN Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  JABATAN	 Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. NO	 Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  NO	INDENTITAS SEKOLAH	KETERANGAN Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  BAB III Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  JENIS KELAMIN	PEND. Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Tahun Ajaran 2021/2022 B.	Hasil ujian siswa Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik. " "JENIS KELAMIN	 Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Tabel 3.3 Klasifikasi hasil pengujian Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 NAMA	JENIS Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Jawaban Hasil Tes kelas kontrol Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Tahun Pelajaran 2021/2022 NAMA	JENIS Persentase	Kondisi BAB I Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: P =(Post Rate – Base Rate)/(Base Rate)x 100% Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: BAB III Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Tabel IX Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang </t>
+  </si>
+  <si>
+    <t>"Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Dari rumusan masalah diatas , maka manfaat proposal ini adalah : KELAMIN	PEND. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Tabel I Sesuai dengan namanya, apakah bahan kajian ini didesain? Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  JABATAN  Hasil Tes kelas eksperimen Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . JENIS KELAMIN	 Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  METODE PENELITIAN Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  BAB II Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  PEND. AKHIR Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Hasil Observasi Aktivitas Siswa kelas eksperimen No.	Aspek Yang Diamati	Nilai Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Tahun Ajaran 2021/2022 Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Tabel III Sumber Data: Kantor MIT Insan Cendikia Kota Makassar BAB IV  PEND. AKHIR NO	INDENTITAS SEKOLAH	KETERANGAN Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Tabel II Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Hasil Observasi Aktivitas Siswa kelas kontrol Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Tabel IV Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: B.	Hasil ujian siswa P =(Post Rate – Base Rate)/(Base Rate)x 100% Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  BAB II Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: No.	Nama	Nilai	Ket. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Sesuai dengan namanya, apakah bahan kajian ini didesain? Tabel IX Hasil Observasi Aktivitas Siswa kelas kontrol menginterpretasi dan ekstrapolasi. BAB I Artinya: Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Jumlah nilai faktor terbaik x faktor Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Jumlah nilai faktor terbaik x faktor KELAS Nilai tertinggi adalah 5 Tahun Pelajaran 2021/2022 NO	 Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  KELAS اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ NAMA	 Skor rata-rata hasil Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya" "Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Pengamatan = Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  NAMA	JENIS Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Berdasarkan latar belakang diatas, maka rumusan masalah dalam penelitian ini masalah yang ingin saya bahas meliputi: Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil.  Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Artinya: Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Jawaban Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: No.	Nama	Nilai	Ket. Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya BAB IV  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Tabel IV PENDAHULUAN BAB III Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D a</t>
+  </si>
+  <si>
+    <t>"KELAS TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Jumlah nilai faktor terbaik x faktor Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Tahun Pelajaran 2021/2022 Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Tahun Pelajaran 2021/2022 Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Gambar 1 Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Skor rata-rata hasil Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. NO	 JABATAN Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Hasil Observasi Aktivitas Siswa kelas eksperimen No.	Nama	Nilai	Ket.  Tahun Pelajaran 2021/2022 maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu PENDAHULUAN Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Hasil Tes kelas kontrol Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Tabel III Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  JENIS KELAMIN	 d) Refleksi Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  JABATAN Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  JENIS KELAMIN	PEND. Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. KELAS Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: NO	Aspek Yang Di Minati	Nilai Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  BAB III Tabel IV Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Total Nilai	38 Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Jumlah nilai faktor terbaik x faktor Hasil Tes kelas kontrol Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Dari rumusan masalah diatas , maka manfaat proposal ini adalah :  Hasil Tes kelas eksperimen Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Tahun Pelajaran 2021/2022 Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Sumber Data: Kantor MIT Insan Cendikia Kota Makassar HASIL PENELITIAN  Hasil Observasi Aktivitas Siswa kelas kontrol Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Tabel VII  Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Tabel 3.3 Klasifikasi hasil pengujian Persentase kejujuran siswa Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Tabel 3.3 Klasifikasi hasil pengujian Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif." "Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? menginterpretasi dan ekstrapolasi. Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, B.	Hasil ujian siswa KELAS Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Tabel I JENIS KELAMIN	 Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan.  Hasil Tes kelas eksperimen Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Persentase	Kondisi Persentase	Kondisi Tabel II Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  NO	Aspek Yang Di Minati	Nilai Persentase	Kondisi TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Gambar 1 Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara</t>
+  </si>
+  <si>
+    <t>"Persentase Observasi	84,44 % Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi NO	Aspek Yang Di Minati	Nilai Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. NO	NAMA 	JENIS KELAMIN	NIP Hasil Observasi Aktivitas Siswa kelas kontrol No.	Nama	Nilai	Ket. PENUTUP Tahun Pelajaran 2021/2022 Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: JENIS KELAMIN	PEND. Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Artinya adalah: Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi TINJAUAN PUSTAKA Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Artinya adalah: Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. NO	 Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Nilai tertinggi adalah 5 Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. No.	Aspek Yang Diamati	Nilai اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Hasil Observasi Aktivitas Siswa kelas kontrol B.	Hasil ujian siswa Total Nilai	38 Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  NO	 Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Artinya: Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Dari rumusan masalah diatas , maka tujuan proposal ini adalah : KELAMIN	PEND. Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: NAMA	 No.	Nama	Nilai	Ket. NO	INDENTITAS SEKOLAH	KETERANGAN Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Rumus untuk mengukurskor rata-rata = persentase Tabel IX Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. NO	 Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.   Tahun Pelajaran 2021/2022 Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 No.	Nama	Nilai	Ket." "Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	  Hasil Tes kelas eksperimen Tabel IX menginterpretasi dan ekstrapolasi. Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.   NO	Aspek Yang Di Minati	Nilai Tabel X  Tabel VII  Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  BAB IV  Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Jumlah nilai faktor terbaik x faktor Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Dari si</t>
+  </si>
+  <si>
+    <t>"Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN TINJAUAN PUSTAKA Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Artinya adalah: Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Tabel I Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. No.	Nama	Nilai	Ket. Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  d) Refleksi Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Hasil Observasi Aktivitas Siswa kelas eksperimen Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: PENDAHULUAN Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: No.	Nama	Nilai	Ket. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Persentase	Kondisi Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Rumus untuk mengukurskor rata-rata = persentase Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  PEND. AKHIR Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Berdasarkan latar belakang diatas, maka rumusan masalah dalam penelitian ini masalah yang ingin saya bahas meliputi: No.	Nama	Nilai	Ket. Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. JENIS KELAMIN	 Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Kelemahan media: Kelemahan media: Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Artinya: Persentase kejujuran siswa BAB V NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN BAB III Tahun Ajaran 2021/2022 Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. BAB II Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. NO	INDENTITAS SEKOLAH	KETERANGAN METODE PENELITIAN PENDAHULUAN Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Total Nilai	38 PEND. AKHIR BAB V Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: METODE PENELITIAN Hasil Tes kelas kontrol JABATAN Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Tabel II Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . NO	 Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  TINJAUAN PUSTAKA Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  JABATAN Tahun Ajaran 2021/2022 Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Pengamatan =" "MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Skor rata-rata hasil Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Tahun Pelajaran 2021/2022 Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. PEND. AKHIR Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Skor rata-rata hasil Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Sumber Data: Kantor MIT Insan Cendikia Kota Makassar JENIS KELAMIN	 Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN NO	 Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. KELAMIN	PEND. Total Nilai	38  Tahun Pelajaran 2021/2022 Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Persentase kejujuran siswa Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: BAB IV  KELAMIN	PEND. maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembel</t>
+  </si>
+  <si>
+    <t>"Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Tabel VI Rumus untuk mengukurskor rata-rata = persentase Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  JENIS KELAMIN	PEND. Tabel 3.3 Klasifikasi hasil pengujian Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. NO	 Pengamatan = Jawaban Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. NO	 Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Tahun Pelajaran 2021/2022 NO	  Hasil Tes kelas eksperimen Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Tabel II Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. BAB IV  Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. PENUTUP B.	Hasil ujian siswa Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Tahun Pelajaran 2021/2022 Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa JENIS KELAMIN	 PEND. AKHIR Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. KELAS Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Rumus untuk mengukurskor rata-rata = persentase Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya METODE PENELITIAN Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. NO	Aspek Yang Di Minati	Nilai Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Tahun Ajaran 2021/2022 No.	Nama	Nilai	Ket. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Gambar 1 Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Jawaban Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Tabel VII  JABATAN Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  No.	Nama	Nilai	Ket. HASIL PENELITIAN  TINJAUAN PUSTAKA Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  No.	Nama	Nilai	Ket. Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. PENUTUP Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: B.	Hasil ujian siswa Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Berdasarkan latar belakang diatas, maka rumusan masalah dalam penelitian ini masalah yang ingin saya bahas meliputi: PENUTUP Jawaban METODE PENELITIAN Tabel V JABATAN	 Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Tabel 3.3 Klasifikasi hasil pengujian NAMA	 Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Persentase kejujuran siswa Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Tabel V" "Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  NO	KELAS	JENIS KELAMIN	JUMLAH	TOTAL	KETERANGAN Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Tabel II Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Tahun Ajaran 2021/2022  Hasil Tes kelas eksperimen Tabel II Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Tabel I Pengamatan = NAMA	 d) Refleksi Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Tabel III Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Tabel VII  TINJAUAN PUSTAKA Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Artinya adalah: اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Nilai tertinggi adalah 5 Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Sumber Data: Kantor MIT Insan Cendikia Kota Makassar NO	INDENTITAS SEKOLAH	KETERANGAN Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Tabel 3.3 Klasifikasi hasil pengujian Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  METODE PENELITIAN Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Tabel I BAB III Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Tabel I Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Hasil Tes kelas kontrol JENIS KELAMIN	 B.	Hasil ujian siswa Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  JABATAN Tabel IX Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Tabel VII  Tabel II Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: BAB IV  Tahun Ajaran 2021/2022 Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Dari hasil penilitian yang diperoleh dari uraian sebelumnya agar prose pembelajaran lebih efektif dan lebih  memberikan hasil yang optimal bagi siswa, maka disampaikan saran sebagai berikut: Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? Pers</t>
+  </si>
+  <si>
+    <t>"Sumber Data: Kantor MIT Insan Cendikia Kota Makassar NAMA	 Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Tabel IX Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Sumber Data: Kantor MIT Insan Cendikia Kota Makassar JABATAN Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Kelemahan media: Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Artinya: Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Tabel VII  Tabel VII  Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Persentase	Kondisi Hasil Observasi Aktivitas Siswa kelas eksperimen Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. menginterpretasi dan ekstrapolasi. Kelemahan media:  Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman B.	Hasil ujian siswa Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman BAB V Sesuai dengan namanya, apakah bahan kajian ini didesain? PENUTUP Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian Nilai tertinggi adalah 5 TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa.  Tahun Pelajaran 2021/2022 Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Rumus untuk mengukurskor rata-rata = persentase Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman  Tahun Pelajaran 2021/2022 Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik NO	 TINJAUAN PUSTAKA Artinya adalah: JABATAN TINJAUAN PUSTAKA Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: P =(Post Rate – Base Rate)/(Base Rate)x 100% Tabel VII  Tabel V Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Nilai tertinggi adalah 5 Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, PEND. AKHIR Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  NAMA	 Gambar 1 Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Hasil Tes kelas kontrol Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  KELAS MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut:  menginterpretasi dan ekstrapolasi. KELAMIN	PEND. Organisasi pada dasarnya digunakan sebagai tempat atau wadah dimana orang orang berkumpul, berkerja sama secara rasional dan sistematis, terencans, terorganisir. terpimpin dan terkendali. Dalam memanfaatkan sumber daya, sarana dan prasarana. data dan lain sebagainya yang digunakan secara efisien dan efektif untuk mencapai tujuan organisasi artinya dengan defenisi tersebut kita memahami betapa besarnya tanggung jawab dari organisasi yang dilaksanakan dengan penuh tanggung jawab Struktur organisasi menggambarkan suatu susunan hubungan antara tiao bagian serta posisi yang ada pada suatu organisasi atau lembaga dalam menjalankan kegiatan operasional untuk mencapai tujuan. Maka dari itu setiap lembaga harus mempunyai struktur organisasi agar dapat berjalan dengan baik. Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam " "Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar.  Tahun Pelajaran 2021/2022 Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  No.	Nama	Nilai	Ket. Data hasil observasi (pengamatan) terhadap aktivitas proses pembelajaran dihitung dengan meringkas aktivitas yang akan datang dan setiap aktivitas yang disajikan. Untuk menghitung persentase, gunakan rumus berikut: Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  No.	Nama	Nilai	Ket. Sesuai dengan namanya, apakah bahan kajian ini didesain? Hasil Tes kelas kontrol Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. NO	 Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Dari rumusan masalah diatas , maka manfaat proposal ini adalah : P =(Post Rate – Base Rate)/(Base Rate)x 100% Persentase kejujuran siswa Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terku</t>
+  </si>
+  <si>
+    <t>"Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Persentase	Kondisi BAB III Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Artinya adalah: Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Berdasarkan latar belakang diatas, maka rumusan masalah dalam penelitian ini masalah yang ingin saya bahas meliputi: Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  JENIS KELAMIN	 KELAS Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.   Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa BAB V Artinya adalah: Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. JABATAN Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Tabel IV Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. Persentase	Kondisi Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Persentase	Kondisi Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman d) Refleksi Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. NO	INDENTITAS SEKOLAH	KETERANGAN Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Gambar 1 Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Jumlah nilai faktor terbaik x faktor Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Tabel VIII Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Nilai tertinggi adalah 5 BAB IV  Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volume atau kedalaman (tinggi, lebar, kedalaman). Anda dapat memutar objek gambar dan memindahkannya dengan cara yang sama seperti objek aslinya. Ini seperti nyata dan hidup. Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Sesuai dengan namanya, apakah bahan kajian ini didesain? Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Peran kedua adalah sebagai cara untuk memberikan pemahaman kepada siswa tentang materi yang diberikan kepada mereka. Untuk siswa: Memberikan pengalaman belajar yang lebih baik. Ada beberapa tujuan belajar: Pengetahuan, pemahaman, prosedur dan pemecahan masalah atas fakta dan membentuk perilaku belajar yang positif. Studi yang sama, Ke, Lin, Ching, dan Dwyer (2006), juga menunjukkan bahwa efek animasi bervariasi dari satu panggung ke panggung lainnya. Dibandingkan dengan gambar diam, animasi dapat sangat meningkatkan ketekunan belajar. 80% siswa yang belajar dengan gambar animasi serius dalam belajarnya dibandingkan dengan siswa yang belajar dengan gambar diam. Penggunaan video dalam pendidikan juga menunjukkan hasil yang berbeda tergantung pada tingkat pendidikan.  Hasil Observasi Aktivitas Siswa kelas kontrol Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Tabel VII  Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Tabel I BAB II Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  NAMA	 Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Persentase kejujuran siswa Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Tabel VI Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Jumlah nilai faktor terbaik x faktor Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Tabel I Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Hasil Tes kelas kontrol Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Skor rata-rata hasil Skor rata-rata hasil Artinya: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Tabel IV" "MIT Insan Cendikia Kota Makassar ini memiliki tempat pembuangan air kecil yang steril yang di mana piket sekolah di beri tugas membersihkannya setiap waktu. Adapun penggunaan air yang di berikan memakai air pam yang higenis yang juga memiliki kesediaan air minum di sumber utamanya. Adapun jambannya sudah menyediakan fasilitas untuk siswa – siswi yang berkebutuhan khusus. Tabel I TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Tabel VI Tabel VII  KELAS Tabel V Rumus untuk mengukurskor rata-rata = persentase Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  PEND. AKHIR Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Tabel 3.3 Klasifikasi hasil pengujian No.	Nama	Nilai	Ket. NO	 Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  JABATAN Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Daftar Nama Struktural Organisasi MIT Insan Cendikia Kota Makassar Tahun Pelajaran 2021/2022  Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Sumber Data: Arsip MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022 Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  TB = x 100%(Jumlah Siswa Yang Memperoleh ≥ 75)/(Jumlah Siswa) Tabel II Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Video 3D adalah perpanjangan dari video 2D. Keberadaan video 3D dapat dikatakan dipengaruhi oleh perkembangan teknologi yang semakin pesat. Video 3D adalah klip video yang dapat ditemukan di ruang 3D. Video ini tidak hanya memiliki tinggi dan lebar, tetapi juga volu</t>
+  </si>
+  <si>
+    <t>"NAMA	 Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Berdoalah untuk hikmat, nasihat yang baik, yang kita ketahui untuk orang-orang yang beriman اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan.  TINJAUAN PUSTAKA Agar tidak terjadi tumpang tindih dalam pelaksanaan tugas setiap personil, maka dalam setiap organisasi dibuat struktur yang lengkap dengan pembagian tugas yang dan tanggung jawab masing-masing personil. Demikian halnya Kota Makassar, terbentuk struktur organisasi sebagaimana tergambar seperti berikut: Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Tabel I BAB II Pada tahap perencanaan ini, penulis memulai dengan melakukan observasi dan tes untuk melihat pemahaman yang dimiliki oleh siswa dan menyimak permasalahan yang ada. Langkah berikutnya penulis menyususn tindakan yang akan dilakukan untuk memecahkan masalahmasalahyang terjadi selama pembelajaran berlangsung. Tindakan yang telah disusun bertujuan untuk memperbaiki den meningkatkan kegiatan belajar mengajar. Selanjutnya penulis menyiapkan instrumen penelitian antara lain rencana pelaksanaan pembelajaran (RPP), Video Pembelajaran, dan Tes ulangan per kelas pada akhir pertemuan.  NAMA	 Data yang diperoleh dalam penelitian ini menggunakan perhitungan persentase. Itu dilaporkan dengan mengacu pada validitas. Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Menurut Azhar Arsyad dalam kutipan Yunani , ada empat alasan pentingnya penggunaan media dalam pembelajaran, yaitu: (1) meningkatkan mutu pembelajaran, (2) tuntutan paradigma baru, (3) memenuhi kebutuhan pasar, dan (4) visi pendidikan global. Disamping itu, urgensi penggunaan media pembelajaran juga dapat ditinjau dari pengaruhnya terhadap sikap, pengetahuan, dan keterampilan siswa, pengaruhnya terhadap kemampuan pengajar dalam mengajar, dan pengaruhnya dalam menciptakan suasana pembelajaran tertentu.  Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi. Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar JABATAN	 Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar.  Hasil Tes kelas eksperimen Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. No.	Nama	Nilai	Ket. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Gambar 1 menginterpretasi dan ekstrapolasi. Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Total Nilai	38 JENIS KELAMIN	PEND. Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 761,34 dan siswa yang telah mencapai KKM hanya 3 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM hanya 21,43%. Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Tabel II Untuk memperoleh informasi atau data yang berkaitan dengan masalah yang diteliti, penulis menggunakan metode sebagai berikut: Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  No.	Aspek Yang Diamati	Nilai Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa BAB I NO	 BAB V JENIS KELAMIN	 maka dari hal tersebut, di harapkan kepada para guru untuk bisa belajar, tindakan apa yang seharusnya ia berikan kepada para peserta didiknya. Tidak begitu memaksa, serta tidak begitu menyepelekan pembelajaran yang berlansung. Namun, memungkinkan untuk adanya cara tersendiri bagi setiap guru untuk tidak memberikan dan menimbulkan kesenjangan serta kebosanan dalam pembelajarannya sehingga pembelajaran dapat menjadi menyenangkan bagi setiap peserta didik di dalam kelas itu sendiri   Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Hasil Tes kelas kontrol JABATAN	 Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Dengan hasil belajar di atas maka peneliti merasa cukup, dan tidak perlu diadakan perbaikan seperti pada kelas kontrol, karena di kelas eksperimen pembelajaran menggunakan Video Pembelajaran sudah dinyatakan berhasil. Pada kelas eksperimen ini, peneliti melakukan observasi lanjutan dalam pembelajaran IPA. Hasil observasi menunjukan keberhasilan atas beberapa masalah dalam kegiatan belajar mengajar dari kelas kontrol yaitu siswa - siswi  Kelas III MIT Insan Cendikia Kota Makassar. Kurang mampu untuknya menyerap pembelajarannya. Namun di kelas eksperimen ini peserta didik dapat menyerap dengan baik pembelajarannya . Bahkan mereka berani untuk merespon  beberapa pertanyaan. KELAS Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Persentase kejujuran siswa Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. NAMA	 TINJAUAN PUSTAKA  Hasil Tes kelas eksperimen Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. NO	NAMA 	JENIS KELAMIN	NIP Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Dari rumusan masalah diatas , maka manfaat proposal ini adalah : Dikemas secara menarik, menyenangkan, dan mudah dipahami, media video juga dapat membantu orang tua membimbing anaknya belajar di rumah. Guru juga membantu menanamkan karakter yang baik pada siswa. Motivasi belajar adalah motivasi yang dibawa siswa untuk mencapai tujuan atau belajarnya. Pada catatan ini, (Emda, 2017). Dengan kata lain, motivasi tidak hanya menjadi kekuatan pendorong untuk mencapai hasil yang memuaskan, tetapi juga melibatkan usaha untuk mencapai tujuan pembelajaran. Motivasi memainkan peran penting dalam keberhasilan siswa dalam pekerjaan studi mereka. Dengan motivasi yang tepat, prestasi akademik siswa akan meningkat. Di sisi lain  Dari rumusan masalah diatas , maka tujuan proposal ini adalah : KELAMIN	PEND. NO	 Pada kelas kontrol, peneliti melakukan observasi awal dalam pembelajaran IPA. Hasil observasi menunjukan beberapa masalah dalam kegiatan belajar mengajar di kelas yaitu pembelajaran yang terlalu rumit di bahasakan sehinggah sulit di sederhanakan untuk di serap oleh siswa - siswi  Kelas III di MIT Insan Cendikia Kota Makassar. Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. PENDAHULUAN Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Persentase Observasi	84,44 % KELAS Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ بِالْحِكْمَةِ وَالْمَوْعِظَةِ الْحَسَنَةِ وَجَادِلْهُمْ بِالَّتِيْ هِيَ اَحْسَنُۗ اِنَّ رَبَّكَ هُوَ اَعْلَمُ بِمَنْ ضَلَّ عَنْ سَبِيْلِهٖ وَهُوَ اَعْلَمُ بِالْمُهْتَدِيْنَ Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Setting (lingkungan) atau environment atau suasana dimana pesan dikirim. Lingkungan fisik yang baik; Ruang kelas, gedung sekolah, perpustakaan, laboratorium, taman, alun-alun, dll. Selain lingkungan, misalnya lingkungan belajar itu sendiri. Sunyi, sesak, lelah, dll.  Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Berdasarkan tabel di atas menunjukkan bahwa nilai rata-rata yang didapatkan adalah 891,43 dan siswa yang telah mencapai KKM ada 10 orang, jadi persentase ketuntasan dari siswa yang telah mencapai KKM adalah 71,43%. Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut. " "Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  PEND. AKHIR Gambar 1 Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Tabel VI Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Tabel VIII Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  NAMA	 Hasil Observasi Aktivitas Siswa kelas kontrol Tabel V BAB V Media atau rekaman audio dan video didukung secara publik. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara TV biasanya dikemas semenarik mungkin bagi pemirsa di semua bidang kehidupan, dari anak-anak hingga orang dewasa. Media audio dan video Media audio dan video disebut juga dengan media video. Video tersebut sekarang resmi menjadi media pendek. Layar tajam ini memungkinkan pemirsa untuk menonton dan mengamatinya selama berjam-jam. Acara-acara televisi biasanya dikemas semenarik mungkin agar pemirsa dari berbagai kalangan mulai dari anak-anak hingga orang dewasa dapat menikmatinya. Media ini juga digunakan untuk menyampaikan pesan pembelajaran. Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Nama - Nama Guru Dan Staf MIT Insan Cendikia Makassar NO	Aspek Yang Di Minati	Nilai Sesuai dengan namanya, apakah bahan kajian ini didesain? Pengamatan = Sesuai dengan namanya, apakah bahan kajian ini didesain? Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendalami pembelajarannya Berbicara tentang konsep, apa saja konsep dasar untuk membuat video 3D? Video 3D dibuat untuk keinginan manusia agar gambar terlihat hidup dan dapat bergerak seperti gambar presentasi. Hal ini didukung oleh hasil penelitian bahwa orang merespon gambar lebih cepat daripada rangkaian kalimat. Fotografi memiliki banyak arti dan dengan fotografi orang bisa bercerita banyak. Bahkan melalui gambar, orang dapat memahami apa yang dimaksud dengan gambar. Tentu saja, pendapat berbeda sesuai dengan pandangan individu. Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  Berdasarkan aturan Pemerintah Republik Indonesia dalam UU Sisdiknas NO. 20 Tahun 2003 Pasal 40; 2  bahwasanya. Pendidik dan tenaga kependidikan berkewajiban; menciptakan suasana pendidikan yang bermakna, menyenangkan, kreatif, dinamis, dan dialogis, kemudian, mempunyai komitmen secara profesional untuk meningkatkan mutu pendidikan; dan memberi teladan dan menjaga nama baik lembaga, profesi, dan kedudukan sesuai dengan kepercayaan yang diberikan kepadanya. Yang sebagaimana kita ketahui siswa – siswi dituntut untuk dapat menginfestivigasi dan mendala</t>
+  </si>
+  <si>
+    <t>"Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Skor rata-rata hasil Hasil Observasi Aktivitas Siswa kelas eksperimen Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: BAB III Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. NAMA	JENIS Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  NAMA	JENIS Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Persentase	Kondisi Tahun Ajaran 2021/2022 Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Persentase kejujuran siswa Hasil Observasi Aktivitas Siswa kelas eksperimen Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. JABATAN Tabel V Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi NO	Aspek Yang Di Minati	Nilai Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. NO	 Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar  Hasil Tes kelas eksperimen BAB III Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Jumlah nilai faktor terbaik x faktor Hasil Observasi Aktivitas Siswa kelas kontrol Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Hasil Observasi Aktivitas Siswa kelas kontrol Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Rumus untuk mengukurskor rata-rata = persentase Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Tabel IX Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. PEND. AKHIR Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Tabel V BAB IV  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Hasil Tes kelas kontrol Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, PEND. AKHIR Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Tabel I Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Tahun Pelajaran 2021/2022 Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Persentase Observasi	84,44 % Nilai tertinggi adalah 5 Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Tabel VIII Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Persentase kejujuran siswa Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: NO	 Tabel VII  Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Tabel II MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. KELAMIN	PEND. Persentase	Kondisi  Hasil Tes kelas eksperimen Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi." "Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Sumber Data: Arsip MIT Insan Cendikia Kota Makassar No.	Nama	Nilai	Ket. Hasil Tes kelas kontrol Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. NAMA	JENIS Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. BAB II Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Artinya adalah: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian Dari rumusan masalah diatas , maka tujuan proposal ini adalah : JENIS KELAMIN	 Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Tahun Pelajaran 2021/2022 Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Total Nilai	38 Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. BAB V BAB IV  Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Artinya: Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar   Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa NO	 Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. NO	 Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Jumlah nilai faktor terbaik x faktor Total Nilai	38 Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  KELAMIN	PEND. Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depanny</t>
+  </si>
+  <si>
+    <t>Ini judul</t>
   </si>
 </sst>
 </file>
@@ -521,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,105 +537,57 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/bab-generator/data.xlsx
+++ b/bab-generator/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Bab</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Subjudul 1</t>
   </si>
   <si>
-    <t>kesimpulan nya adalah bla bla bla</t>
-  </si>
-  <si>
     <t>"Tabel IX Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  No.	Aspek Yang Diamati	Nilai Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Nilai tertinggi adalah 5 Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran.Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: PEND. AKHIR menginterpretasi dan ekstrapolasi. Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 BAB II Sesuai dengan namanya, apakah bahan kajian ini didesain? P =(Post Rate – Base Rate)/(Base Rate)x 100% Tabel VIII Hasil Observasi Aktivitas Siswa kelas eksperimen Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% NO	INDENTITAS SEKOLAH	KETERANGAN JABATAN	 Pelaksanaan pembelajaran yang berpusat pada siswa atau dikenal dengan student centered learning harus didukung dengan media dan strategi pembelajaran yang sesuai dengan kebutuhan siswa. Misalnya, metode pembelajaran berbasis masalah harus didukung dengan bahan masalah yang valid dan terukur, begitu juga dengan pembelajaran berbasis proyek harus didukung dengan media yang diperlukan siswa dalam membuat proyek yang ditentukan. Pengamatan = Perkembangan kebutuhan pasar atau dunia kerja sekarang ini telah semakin luas akibat mobilisasi teknologi. Oleh karena itu, setiap lembaga pendidikan harus mengikuti perkembangan ilmu pengetahuan dan teknologi agar praktik pembelajaran yang diterpakan sekolah dapat menghasilkan lulusan yang melek teknologi dan dapat mengikuti perkembangan zaman. Salah satu cara memperkenalkan teknologi kepada siswa adalah dengan memanfaatkan teknologi sebagai media pembelajaran. Penggunaan teknologi sebagai media pembelajaran secara tidak langsung akan mendorong siswa untuk mendalami carapenggunaan teknologi yang dibutuhkannya. Seperti kelas virtual, augmented reality, dan lain sebagainya. Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Kelemahan media: BAB IV  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Tabel II PENDAHULUAN Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Daftar Nama Guru Dan Wali Kelas Di MIT Insan Cendikia Kota Makassar  Jenis metode penelitian ini adalah pendekatan kuantitatif. Oleh karena itu, ketika melakukan tindakan terhadap siswa, yang diutamakan adalah mencari data yang dapat diolah atau dikuantifikasi. Metode lain yang terkait dengan penelitian ini adalah fakta berdasarkan praktisi yang diperoleh dari mahasiswa. Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  BAB III Tolak ukur peningkatan pemahaman siswa dalam kegiatan pembelajaran adalah kemampuan siswa dalam mencerna/menyerap gagasan, menghubungkan dan membedakan gagasan serta membuat suatu kesimpulan dari suatu gagasan. Keaktifan belajar dan pemahaman siswa melalui penerapan Video Pembelajaran di kelas III di MIT Insan Cendikia Kota Makassar mengalami peningkatan yang signifikan hal ini dapat dilihat dari tolak ukur di atas melalui hasil pembelajaran dan aktivitas siswa selama pembelajaran berlangsung. Berdasarkan hasil penelitian di atas khususnya pada saat peneliti menghadapi kelas kontrol. , Nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas kontrol masih banyak yang berada di bawah rata-rata. Selain itu, dari hasil pengamatan penulis. peserta didik juga masih belum begitu berani untuk memberikan pertanyaan dan jawaban.  Namun pada saat penulis menampilkan video pembelajarannya pada kelas eksperimen, nilai rata-rata hasil belajar seswa dan persetase ketuntasan siswa pada kelas eksperimen sudah cukup memuaskan. Dikarenakan pada kelas eksperimen , nilai rata-rata hasil belajar para peserta didik sudah cukup banyak yang berada di atas rata-rata bahkan mendominasi JABATAN Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Persentase	Kondisi Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  Mit Insan Cendikia Makassar dulunya hanyalah sebuah pijak tanah yang berukuran 540 m2 yang kemudian di bangun dengan bangunan bercat hijau dengan luas bangunan 4 x 540 m2. Adapun Yayasan Ulul ilmi Insan Cendikia berperan peting dalam penderian sekolah ini, yang berdiri pada 10 tahun yang lalu terhitung pada saat skripsi ini di buat. Tepatnya pada, 11 oktober 2011. MIT Insan Cendikia Makassar tidak begitu signifikan dalam perkembangannya. Sekolah yang beralamatkan di Jln.Nur Aqsa no.2 lorong 1 ini awalnya memiliki total 60 orang saja. Adapun target jumlah siswa ke depan Sejak skripsi ini di buat berjumlah total 320 orang. Dengan jumlah guru dan staf sebanyak 37 orang. Adapun saat ini, saat skripsi ini di buat. MIT Insan Cendikia Kota Makassar ini juga sudah menyediakan koneksi internet yang di mana koneksi internet ini dapat di gunakan oleh staf dan guru di MIT Insan Cendikia Kota Makassar. Namun, berkenan dengan hal itu untuk siswa dan siswi MIT Insan Cendikia Kota Makassar tidak di perkenankan memakai koneksi internet dalam jam pembelajaran di dalam kelas di karenakan di khawatirkannya ketidakfokusan siswa dan siswi terhadap pembelajaran di dalam kelas di jam pelajarannya atau di saat aktifitas di dalam kelas berlansung Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Total Nilai	38 PENDAHULUAN Sumber data dalam penelitian ini ialah berasal dari hasil observasi ke dalam kelas. Berupa hasil dari penelitian tindakan kelas kepada para siswa yang menduduki bangku kelas III di MIT Insan cendikia Makassar  NO	 Peran media dalam pendidikan dapat menjadi objek dan alat. Media sebagai objek berarti media pembelajaran dapat digunakan sebagai sumber belajar. Dalam hal ini, pendidik dapat mempelajari berbagai disiplin ilmu pengetahuan menggunakan media pembelajaran. Sementara media sebagai alat dapat digunakan pendidik untuk berkonsultasi dengan pakar pendidikan dan untuk alat bantu mengajar. Sebagai contoh, pengajar dapat menggunakan video tutorial sebagai bahan belajar dan menggunakan media sosial ataupun teleconference untuk berdiskusi dengan pakar pendidikan. Disamping itu, pengajar juga dapat memanfaatkan benda nyata, benda manipulatif, bahan grafis, bagan, dan video sebagai alat bantu dalam menjelaskan materi pelajaran. Gambar 1 Jawaban Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: Total Nilai	38 Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: TINJAUAN PUSTAKA Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depannya. Adapun daftar nama stuktural organisasi secara berurut ialah sebagai berikut: Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Artinya adalah: Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Adapun instrumen yang digunakan peneliti dalam hasil komunikasi adalah, sebagai berikut: NO	INDENTITAS SEKOLAH	KETERANGAN Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: NO	Aspek Yang Di Minati	Nilai Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Tabel V HASIL PENELITIAN  Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Pembelajaran dikatakan berhasil apabila lembar observasi siswa memperoleh hasil yang lebih dari 66,67% dari hasil pelaksanaan pembelajaran dan jika rasio integritas siswa minimal 80% maka nilai ujian siswa dikatakan telah berhasil. berhasil. dari 75 jenjang KKM. No.	Nama	Nilai	Ket. Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. Ini digunakan untuk mencari, mengumpulkan, dan meneliti informasi dari sumber lain. Metode dokumen adalah data yang dikumpulkan atau dikumpulkan dari peristiwa sebelumnya. Dokumen dapat berupa tulisan, foto, karya, observasi atau hasil tes. Sebagian besar data yang diambil dari dokumen adalah data tambahan dan data tersebut sudah masuk akal untuk diinterpretasikan.  menginterpretasi dan ekstrapolasi. Total Nilai	38 NO	 Media audio dan video ini, sesuai dengan namanya, tidak hanya video, tetapi juga mengandung audio, sehingga bisa dibilang lebih terang dari video. Format berbagi audio dan video ini biasanya berupa format video. Media video mengintegrasikan dua elemen: audio dan visual. Kehadiran elemen suara memungkinkan siswa untuk menerima pesan pembelajaran melalui pendengaran, dan elemen visual memungkinkan mereka untuk membuat pesan pembelajaran visual. Menurut Ronald Anderson (1994: 99), media video adalah rangkaian gambar elektronik dengan unsur audio visual dan ada juga kaset video yang dituangkan ke dalam rekaman video (video recording). Kemudian serangkaian gambar elektronik akan diputar di perangkat, yaitu. perekam kaset video atau pemutar video. Tujuan media video dalam pendidikan adalah sebagai berikut:  Hasil Tes kelas kontrol Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. NO	NAMA 	JENIS KELAMIN	NIP Namun dari beberapa kejadian, banyak guru kelas yang seringkali meninggalkan kelasnya. Bila di lihat dari hal tersebut, persoalan mendasar yang menjadi problematika saat ini. Bukan sepenuhnya berasal dari inovasi belajar, pengelolaaan kurikulum ataupun pencapaian prestasi. Namun ini lebih spesifik kepada efektif atau tidak efektifnya. Di minati atau tidak di minatinya pembelajaran tersebut. Apabila siswa tidak tertarik dengan pembelajaran. Makah al yang sering sekali muncul ialah ketidak efektifannya pembelajaran tersebut. Sebaliknya, bila siswa tertarik terhadap pembelajaran. Maka akan muncul suasana kelas yang ramai, dan menyenangkan namun bukan saat guru meninggalkan kelasnya, namun sebaliknya.  NAMA	JENIS Tabel VI Tabel VIII Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Persentase	Kondisi Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  NO	INDENTITAS SEKOLAH	KETERANGAN Oleh karena itu, untuk menyampaikan pesan, yaitu. untuk berkomunikasi dan menyampaikan pesan kepada penerima – siswa selama masa studi dan pembelajarannya, diperlukan media yang menyampaikan pesan agar pembelajaran menjadi efektif dan efisien. Mencapai tujuan belajar yang lebih baik Tabel II Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Tabel IV Sampel penelitian ini memiliki kelas III sebagai kelas kontrol, dan kelas eksperimen. Dengan jumlah 15 dan 14 orang siswa. Yang dimana Kelas ini terdiri dari 2 sesi kelas di karenakan kondisi wabah pandemi Covid19, Kelas kontrol dalam pembelajarannya menggunakan strategi pembelajaran biasa dengan media berupa buku dan papan tulis sedangkan kelas eksperimen menggunakan media pembelajaran berbasis video pembelajaran. Data yang sudah dikumpulkan disajikan dalam bentuk tabel distribusi frekuensi dan grafik histogram. Sedangkan data yang ditampilkan berupa nilai mean, simpangan baku, varians, nilai minimum, nilai maksimum dan range. Data tersebut di analisis dan dibandingkan guna menjawab permasalahan penelitian. Hasil analisis data dapat disajikan sebagai berikut:  NO	NAMA 	JENIS KELAMIN	NIP menginterpretasi dan ekstrapolasi. TINJAUAN PUSTAKA Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya. " "Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Tahun Ajaran 2021/2022 Oleh karena itu, diperlukan adanya kerabat baik guru maupun sekolah baik dari segi bahan dan alat belajar, maupun media pembelajaran itu sendiri. Oleh karena itu, sebagaimana dikemukakan dalam pendapat para ahli di atas, pembelajaran dapat efektif dan efisien jika didukung dengan adanya media pembelajaran. Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization):  Tahun Pelajaran 2021/2022 Dari uraian di atas, bahan belajar yang tersedia adalah bahan belajar dan bahan belajar yang dirancang (bahan belajar setelah digunakan) Anda dapat melihat bahwa itu terdiri dari jenis. Bahan kajian yang digunakan berupa bahan kajian yang tidak dirancang untuk digunakan dalam tujuan penelitian ini. Bahan studi yang dirancang, atau (study material by design), adalah bahan studi yang dikembangkan secara khusus sebagai elemen dari suatu sistem pendidikan untuk menyelenggarakan pendidikan. Hal ini berupa fasilitas yang disusun secara terencana dan dirancang khusus untuk meningkatkan efisiensi dan efektifitas pembelajaran itu sendiri. Berbeda dengan Association of Learning and Communication Technology (AECT) yang mengklasifikasikan bahan belajar menjadi enam jenis. Jam, pesan, orang, konten, perangkat, teknologi, dan setelan. Berikut adalah penjelasan rinci dari keenam bahan kajian tersebut: Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  JENIS KELAMIN	 Persentase Observasi	84,44 % Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 44,44%, ini masih jauh dari indikator, hal ini disebabkan oleh kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan masih kurang. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam bertanya serta keberanian siswa untuk maju ke depan kelas pun masih kurang. BAB I Tabel VII  BAB III Untuk Lebih meningkatkan lagi kemampuan dalam kualitas pembelajaran maka saran penulis bagi guru, ialah agar:. Skor rata-rata hasil Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Animasi adalah video yang dibuat dari kumpulan objek yang disusun secara sistematis dengan kecepatan konstan. Saat ini, animasi dibuat dengan komputer, secara keseluruhan atau sebagian. Animasi banyak digunakan dalam industri hiburan, game, dan pendidikan. Sejauh ini, animasitelah digunakan di media karena dua alasan. Pertama, menarik perhatian siswa dan meningkatkan motivasi. Jenis animasi ini biasanya merupakan animasi yang menarik dan aneh yang menarik perhatian siswa, dalam bentuk burn atau video. Animasi ini biasanya tidak ada hubungannya dengan konten yang diberikan kepada siswa. Tahun Pelajaran 2021/2022 Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  d) Refleksi Sumber Data: Arsip Bagian Kurikulum MIT Insan Cendikia Kota Makassa Tabel VIII NAMA	 Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Tahun Pelajaran 2021/2022 Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  اُدْعُ اِلٰى سَبِيْلِ رَبِّكَ</t>
   </si>
   <si>
@@ -118,7 +115,7 @@
     <t>"Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Skor rata-rata hasil Hasil Observasi Aktivitas Siswa kelas eksperimen Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Berdasarkan beberapa teori tersebut dapat dipahami bahwa penggunaan media pembelajaran dapat mempengaruhi mutu pem belajaran. Oleh karena itu, pengajar dapat meningkatkan mutu pembelajarannya dengan mengembangkan media pembelajaran yang cocok dengan kondisi pembelajaran yang akan dilaksanakannya. Pentingnya pelaksanaan pembelajaran yang baik sejalan dengan firman Allah SWT dalam  Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Integritas belajar diputuskan oleh sekolah. Nilai yang harus diperoleh mahasiswa untuk menyelesaikan studinya adalah 75 dengan rumus sebagai berikut: BAB III Dari sini kita tahu. Penelitian yang peneliti lakukan adalah mengambil pendekatan yang membutuhkan aplikasi langsung, yaitu mengembangkan keterampilan baru di sana. Oleh karena itu, peneliti sangat perlu menerapkannya dalam kegiatan pembelajaran dimana pembelajaran benar-benar berlaku bagi siswa. Studi ini diperlukan. NAMA	JENIS Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  NAMA	JENIS Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Selain melakukan observasi peneliti juga melakukan pemberian tes berupa soal untuk mengetahui hasil belajar siswa dari pembelajaran yang sebelumnya telah dibahas oleh guru mata pelajaran. Hasil belajar dari kelas kontrol siswa Kelas III di MIT Insan Cendikia Kota Makassar adalah sebagai berikut: Persentase	Kondisi Tahun Ajaran 2021/2022 Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Persentase kejujuran siswa Hasil Observasi Aktivitas Siswa kelas eksperimen Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. JABATAN Tabel V Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi NO	Aspek Yang Di Minati	Nilai Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar  Menurut Nana Sudjana  , ada dua jenis pemahaman yang terbentuk pada siswa sebagai hasil belajar, yaitu explanatory understanding dan exploratory understanding. Pemahaman yang disebut explanatory understanding terjadi jika suatu guru menjelaskan kepada siswa suatu hukum, suatu relasi, atau suatu generalisasi. Jika pengajaran itu berhasil, maka siswa akan mendapatkan pengetahuan tentang sejumlah fakta beserta prinsip-prisip yang berhubungan dengan fakta itu. Sedangkan, exploratory understanding dalam belajar mengajar, mengajarkan tentang terbentuknya pemahaman pada siswa. Mereka dapat memecahkan persoalan yang diberikan oleh guru setelah guru memberikan sekumpulan data dan generalisasi. Jadi, dalam proses memperoleh pemahaman sendiri, siswa meneliti fakta yang ada dan prinsip atau generalisasi yang diketahuinya untuk mencarinya sesuatu yang baru. siswa dituntut aktif dan berpartisipasi, lebih kritis, imajinatif, dan kreatif. Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Adapun dari aspek bilogis, penggunaan media pembelajaran dapat melatih psikomorik siswa dalam melaksanakan aktivitas pembelajaran, seperti mengamati, mengumpulkan informasi, menganalisis, mencoba, dan mengkomunikasikan informasi yang telah diperolehnya. NO	 Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar  Hasil Tes kelas eksperimen BAB III Jenis survei ini merupakan survei kuantitatif bila diklasifikasikan menurut jenis dan analisisnya. Penelitian kuantitatif, di sisi lain, adalah metode penelitian ilmiah untuk mengumpulkan, menganalisis, dan menyajikan data dalam bentuk numerik daripada bentuk naratif. Penelitian ini dapat diklasifikasikan tidak hanya sebagai penelitian kuantitatif, tetapi juga sebagai penelitian operatif. Penelitian tindakan adalah studi yang dilakukan untuk mengembangkan keterampilan dan metode baru bagi guru untuk memecahkan masalah dengan menerapkannya secara langsung di dunia bisnis dan dunia nyata lainnya.  Berdasarkan struktur organisasi MIT Insan Cendikia Kota Makassar dapet ketahui bahwa kepala sekolah sebagai pimpinan tertinggi yang selain sebagai pemegang komando pada struktur yang ada di bawahnya seperti kesiswaan, kurikulum, tata usaha, unit pustakaan, guru dan wali kelas, peserta didik, dan penjaga sekolah, kepala sekolah juga senantiasa berkordinasi dengan yayasan ulul ilmi insan cendikia. Masyarakat secara umum maupun dengan yayasan ulul ilmi insan cendikia. Secara teknis pekerjaan administrast dipasarkan pada bagian tata usaha, yang didalamnya terdapat staf baik staf atau pegawal yang menangani seluruh persuratan dan administratif dalam operasionalisasi kegistan sekolah Sementara unit pepustakaan sebagai suatu bagian yang menangani secara kliseut perpustakaan baik dalam hal kelengkapan buku, sarana dan prasarana, pelayanan, serta pengaturan penggunaan perpustakaan. Adapun guru dan wali kelas sehagai aparit yang berhadapan langsung kepada peserta didik.  Media pembelajaran, sebaliknya, menurut Cecep Kustandi dan Bambang , merupakan alat yang dapat membantu memperjelas makna yang disampaikan sehingga dapat mencapai tujuan pembelajaran yang lebih baik. Oleh karena itu, media pembelajaran adalah suatu cara menghubungkan atau apapun yang dapat membawa atau menyampaikan pesan dari pihak-pihak secara sistematis dari lingkungan yang mendorong dalam proses belajar mengajar yang efisien dan efektif untuk mencapai tujuan pembelajaran yang lebih baik.  Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Hasil refleksi yang dilakukan peneliti bersama pengamat menghasilkan beberapa hal yang dapat dicatat oleh peneliti, yaitu: Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. Kami perlu mendapatkan informasi berdasarkan hasil bahan penelitian. Survei adalah metode pengumpulan data yang dilakukan dengan memberikan responden kumpulan pertanyaan atau pernyataan untuk dijawab. Survei dapat dilakukan dalam format tradisional (cetak) atau online (misalnya format Google). Jenis-jenis Video Pembelajaran yang dapat digunakan dalam pembelajaran adalah gambar/foto, sketsa, diagram, bagan organisasi, bagan alir, tabel, grafik garis, grafik batang, grafik lingkaran/piring dan kartun. Berbagai laporan penelitian telah menunjukkan bahwa penggunaan media pembelajaran berpengaruh terhadap mutu pembelajaran. Salah satu alasan rasional mengapa penggunaan media pembelajaran berpengaruh terhadap kualitas pembelajaran adalah karena media pembelajaran dapat digunakan untuk mengaktifkan berbagai jenis alat indera siswa dalam proses pembelajaran. Daryanto dalam kutipan Suryani dkk menjelaskan bahwa prosentase kemampuan pemahaman manusia dari penggunaan alat indranya. Sejalan dengan penjelasan Daryanto, Rapidhe dalam kutipan Yaumi telah melaporkan bahwa dampak dari aktivitas belajar siswa terhadap perkembangan kemampuannya. Pentingnya penggunaan media pembelajaran juga didukung oleh teori kognitif Bruner. Menurut Bruner , tingkatan modus belajar dimulai dari pengalaman langsung (enactive), pengalaman melalui gambar (iconic), dan menuju pada pengalaman abstrak (symbolic). Dalam hal ini, pendidik dapat menggunakan benda nyata untuk memberikan siswa pengalaman langsung (enactive), selanjutnya pendidik dapat menggunakan media gambar atau benda manipulatif untuk memberikan pengalaman melalui gambar (iconic), dan pendidik dapat menggunakan buku cetak atau simbol-simbol rumus untuk memberikan pengalaman abstrak (symbolyc). Jumlah nilai faktor terbaik x faktor Hasil Observasi Aktivitas Siswa kelas kontrol Berkenan dengan hal itu, Adapula Guru-guru yang di tugaskan bertugas sebagai wali kelas untuk mendampingi dan mengawili peserta didik di sekolah. Adapun list atau daftar nama-nama Guru tersebut, ialah sebagai berikut: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Dikembangkan secara khusus sebagai bagian dari sistem pendidikan untuk menyelenggarakan pendidikan dan menyediakan fasilitas belajar yang formal dan terorganisir Hasil Observasi Aktivitas Siswa kelas kontrol Karakteristik media video meliputi kelebihan dan kekurangan sebagai berikut: Sesuai dengan namanya, apakah bahan kajian ini didesain? Berdasarkan hasil observai aktivitas siswa, keaktifan dan pemahaman siswa pada kelas kontrol sebesar 84,44%, ini sudah memenuhi indikator, hal ini dikarenakan kosentrasi siswa dalam mengikuti pembelajaran dan keberanian siswa dalam menjawab pertanyaan sudah lumayan bagus. Kemampuan menyerap, menghubungkan, membedakan gagasan atau materi, membuat kesimpulan dan rangkuman, menghargai pendapat teman, keberanian siswa dalam juga sudah lumayan bagus. Dengan presentase peningkatan sebesar 117,09% Penggunaan media pembelajaran dalam pembelajaran dan pembelajaran dapat menimbulkan keinginan dan minat baru, mendorong dan merangsang kegiatan belajar bahkan memberikan efek psikologis terhadap perkembangan siswa. Dengan mengacu pada uraian di atas, dapat diketahui bahwa penggunaan teknologi media pembelajaran baik dalam bentuk visual maupun audio memiliki dasar dimana kita didorong untuk melakukan pembelajaran yang baik, memiliki kearifan dan mengajar. Sikap yang baik dapat membangkitkan minat dan motivasi siswa.  Rumus untuk mengukurskor rata-rata = persentase Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: Tabel IX Penggunaan media dalam pembelajaran khususnya Video Pembelajaran dalam kegiatan pembelajaran IPA mempunyai fungsi untuk menarik perhatian, memperjelas sajian ide, mengilustrasikan atau menghiasi fakta yang mungkina akan cepat dilupakan apabila tidak digrafiskan . Dalam belajar, unsur pemahaman tidak dapat dipisahkan dari unsurunsur psikologi yang lain. Dengan motivasi, konsentrasi dan reaksi, subjek belajar dapat mengembangkan fakta-fakta, ide-ide atau keterampilan, kemudian dengan unsur organisasi subjek belajar dapat menata dan mematutkan hal-hal tersebut secara bertautan bersama menjadi suatu pola yang logis. Dengan demikian pemahaman akan bersifat kreatif. Ia akan menghasilkan imajinasi dan fikiran yang tenang. PEND. AKHIR Skripsi ini membahas tentang efektivitas Penggunaan Media Pembelajaran Animasi Dalam Pelajaran IPA Kelas III Mit Insan Cendikia Kota Makassar,  dan bagaimana pengaruh video pembelajaran dalam meningkatkan pemahaman peserta didik pada mata pembelajaran IPA di 	MIT Insan Cendikia Kota Makassar Tabel V BAB IV  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Hasil Tes kelas kontrol Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, PEND. AKHIR Berdasarkan dari hasil penelitian yang peneliti lakukan di MIT Insan Cendikia Kota Makassar. Pengembangan media biasanya terdiri dari tiga generasi utama. Artinya, (1) media generasi ini berisi surat kabar/majalah. (2) Radio, film, televisi. (3) Telekomunikasi, komputer.  Tabel I Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. Tahun Pelajaran 2021/2022 Pemahaman menurut Bloom dalam Sudjana   adalah kemampuan menangkap arti materi dengan cara menerjemahkan, Persentase Observasi	84,44 % Nilai tertinggi adalah 5 Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Adapun kemudian, setelah di lakukannya beberapa observasi dan pengumpulan data. Peneliti sudah bisa melihat. Bahwasanya masalah yang di hadapi bukan hanya sebatas masalah dari luar pembelajaran. Namun Lebih spesifik lagi, juga terdapat masalah internal pembelajaran dan salah satunya adalah kejenuhan pada pembelajaran. Namun dengan menyiapkan media pembelajaran pada kelas tersebut. Maka Penulis dan di harapkan juga guru dapat menciptakan suasana pembelajaran yang menyenangkan.  Proses analisis data dimulai dengan melihat semua data yang tersedia dari berbagai sumber, yaitu. wawancara, pengalaman tertulis dalam penjelasan lapangan, dokumen pribadi, dokumen resmi, foto, dll. Data dalam penelitian ini, kata Huberman juga , dikuantifikasi, termasuk tiga elemen: reduksi data, tampilan data, dan gambar hasil. Tabel VIII Oleh karenanyalah. Untuk mewujudkan hal tersebut, maka di sarankan kepada para guru untuk harus mampu membuat media visual yang baik bagi siswanya. Dan disini saya meneliti bagaimana ketertarikan dan minat seorang murid terhadap pembelajaran itu meningkat dengan adanya media visual yakni dalam bentuk video. Bukan hanya sebatas percepatan pemahaman saja. Tapi Bagaimana agar seorang siswa – siswi kelas III tersebut dapat tersimulasisasi minatnya terhadap pembelajaran. Maka dari itulah, saya akan mencoba mengajarkan pembelajaran tentang ciri – ciri makhluk hidup dalam pembelajaran IPA melalui video pembelajaran dengan harapan dapat terstimulasi minat dan pemahamannya ke dalam pembelajaran yang tidak hanya mencegah terjadi kesenjangan dan kebosanan dalam hal pembelajaran di dalam kelas. Namun juga memberikan kepekaan dan stimulasisasi terhadap pembelajaran itu sendiri. Rincian: P = Rasio rehabilitasi = Rata-rata skor dasar setelah operasi = Rata-rata skor sebelum operasi Persentase kejujuran siswa Sumber Data: Arsip Kepala Sekolah MIT Insan Cendikia Kota Makassar Paradigma baru pendidikan telah mendorong pendidik untuk menjadi perancang, fasilitator, motivator, dan pengelola pembelajaran. Dalam hal melaksanakan tugas tersebut, pengajar tidak boleh menjadi orang yang paling dominan dalam proses pembelajaran. Sebab, secepat apapun pendidik dalam menyajikan materi pelajaran maka akan kalah cepat dengan kecepatan siswa melupakan materi pelajaran tersebut. Oleh karena itu, paradigma baru pendidikan telah mengharuskan pendidik untuk memberikan kesempatan yang sebesar-besarnya kepada siswa untuk aktif mengalami aktivitas belajar. Dari rumusan masalah diatas , maka tujuan proposal ini adalah : Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Keadaan peserta didik di MIT Insan Cendikia Kota Makassar, tahun ajaran 2021/2022. Dapat di lihat pada tabel berikut: NO	 Tabel VII  Peneliti mengumpulkan data dari ujian atau soal yang dikumpulkan setelah siswa menjawab. Data yang terkumpul kemudian menjadi informasi bagi peneliti terkait dengan program atau metode yang dievaluasi bagi peneliti.	 Tabel II MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah ibtidaiyah terpadu yang dimana sesuai dengan sebutannya yakni terpadu  juga setelah melakukan beberapa observasi, peneliti bisa melihat bahwa MIT Insan Cendikia Kota Makassar ini merupakan sebuah madrasah yang memfokuskan siswa – siswinya bukan hanya sebatas pembelajaran keagamaan saja. Namun lebih spesifik kepada memadukan ilmu Al-aqur’an dan hadist sehingga bisa di salurkan kepada pengembangan teknologi dan sains. Adapun profil singkat dari MIT Insan Cendikia Kota Makassar ini ialah sebagai berikut: Ini juga berlaku untuk video. Video adalah rangkaian gambar yang disusun sedemikian rupa sehingga membentuk rangkaian gerakan yang berkesinambungan. Pesan yang menyertai video tergantung pada imajinasi pemirsa. KELAMIN	PEND. Persentase	Kondisi  Hasil Tes kelas eksperimen Menurut Soedarsono   proses penggunaan Video Pembelajaran pada pembelajaran IPA dimulai dari tahap perencanaan, tahap tindakan, tahap observasi sampai tahap refleksi." "Kemp dan Dayton (1985) menjelaskan bahwa penggunaan media dalam proses pembelajaran memberikan kontribusi yang sangat penting. Profil sekolah MIT Insan Cendikia Kota Makassar Tahun pelajaran 2021/2022 Sumber Data: Arsip MIT Insan Cendikia Kota Makassar No.	Nama	Nilai	Ket. Hasil Tes kelas kontrol Menurut mayoritas guru, media video pendidikan dipilih oleh siswa, yang dapat mengajarkan konsep dari materi dan dengan bantuan video, membantu guru menjelaskan objek abstrak secara spesifik. Media video dapat membantu siswa memahami dan mendorong mereka untuk belajar mandiri di rumah. Sementara itu, menurut Ribawati (2015), penggunaan media video mempengaruhi kemauan belajar siswa. NAMA	JENIS Baik dalam hal tingkah laku, tutur kata dan sopan santin di lingkungan keluarga sekolah dan masyarakat. Namun demikian, nampak jelas bahwa guru bukanlah sesuatu yang mudah untuk dilaksanakan, sebab keberhasilan satu sekolah khusunya di MIT Insan Cendikia Kota Makassar ini. Peranan Guru di MIT Insan Cendikia Kota Makassar ini sangat penting bagi perkembangan peserta didiknya. Maka dari itulah Guru di MIT Insan Cendikia Kota Makassar ini terbagi ke dalam beberapa kategori mata pelajaran atau penugasan, yakni sebagai berikut: Sumber Data: Kantor MIT Insan Cendikia Kota Makassar Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. BAB II Deskripsi data bertujuan untuk menggambarkan data yang telah dikumpulkan. Data yang diperoleh ini kemudian di analisis sehingga dapat digunakan untuk mengetahui hasil dari suatu penelitian. Tujuan penelitian ini untuk mengetahui perbedaan pembelajaran dengan menggunakan media pembelajaran berbasis video dengan tidak menggunakan media pembelajaran berbasis video. Perbedaan ini dapat dilihat dari prestasi maupun motivasi belajar siswa pada mata pelajaran perawatan unit kopling.  Artinya adalah: Menurut Kurniawan dkk, lebih mudah memahami materi yang sulit dan praktis dengan menerbitkan media video pembelajaran. Oleh karena itu, beberapa materi dalam studi sains memerlukan pelatihan praktis. Video edukasi sangat dibutuhkan. Dan senang dengan itu, (Nurdin, 2019) mengatakannya  Bahan pelajaran dapat digunakan dan digunakan sendiri atau bersama-sama dengan alat dan bahan lain, termasuk bahan pelajaran yang direncanakan atau yang sudah kadaluwarsa. Bahan ajar dalam kategori baik adalah bahan ajar yang dapat mendorong dan mendukung keinginan Anda untuk belajar baik dalam bentuk parsial maupun personal. Semua sumber informasi yang digunakan siswa dan mengubah perilaku belajarnya adalah bahan pembelajaran. Secara umum, jenis sumber belajar dapat dibedakan menjadi dua jenis. Bahan ajar yang dirancang (study material by design) dan bahan ajar bekas (study material by utilization): Berdasarkan jenis penelitian yang membutuhkan data kuantitatif maka penlitian ini akan mengumpulkan data dari objek penelitian secara lansung yakni berupa data hasil komunikasi atau pertanyaan melalui lembar tes ataupun pertanyaan yang diberikan secara lansung kepada objek penelitian Dari rumusan masalah diatas , maka tujuan proposal ini adalah : JENIS KELAMIN	 Data dalam penelitian ini disusun oleh para ilmuwan dengan menggunakan jenis data kuantitatif. Data kuantitatif adalah data dalam bentuk numerik, yang biasanya diperoleh melalui penyebaran kuesioner, pengamatan langsung atau data pendukung, dan pengolahan data dilakukan dengan analisis statistik. Data ini diperoleh dari hasil tes atau pertanyaan tertulis. Atau bisa berupa pertanyaan tentang penggunaan atau metode pembelajarannya.  Tahun Pelajaran 2021/2022 Reduksi data adalah proses pemilihan, pemusatan dan penyederhanaan data dari awal pengumpulan data hingga penyusunan laporan. Total Nilai	38 Animasi tidak hanya menarik, tetapi juga mudah diterima dengan panca indera. Bagi sebagian besar anak-anak dan siswa, sebaiknya memiliki video dalam video biasa. Agar animasi ini dapat diterima oleh semua kalangan. Animasi kini mengontrol minat anak-anak dan siswa lebih dari video biasa. Selain itu, meskipun tingkat studi bervariasi, pendidikan dasar dan menengah lebih nyaman daripada sekolah menengah. Misalnya, untuk menambah pengetahuan tentang fakta, animasi lebih bermanfaat di pendidikan tinggi daripada pendidikan dasar. Animasi telah berhasil meningkatkan pemahaman sekolah menengah atas yang lebih muda daripada pendidikan tinggi. BAB V BAB IV  Berdasarkan paragraf di atas, Anda dapat menjelaskan bahwa pengguna metode pembelajaran harus memantau aspek pesan yang disampaikan. Artinya, itu adalah bahasa yang positif dan sopan sebagai cara menyampaikan pesan dan harus dijelaskan bahkan jika Anda menyangkal guru. Ditulis dalam bahasa yang logis, siswa dapat menerimanya dengan baik. Artinya: Keadaan Peserta Didik MIT Insan Cendikia Kota Makassar   Ayat di atas menjelaskan agar ajakan ke jalan Allah dilakukan dengan hikmah (cara yang bijak, tegas, dan berdasarkan ilmu yang benar), pembelajaran yang baik, dan metode debat yang baik. Dasar penggunaan media pembelajaran tersebut juga telah ditegaskan oleh Peraturan Pemerintah Republik Indonesia Nomor 19 Tahun 2005 Tentang Standar Nasional Pendidikan. Peraturan ini telah menekankan agar setiap satuan pendidikan memiliki media pendidikan. Selain itu, Peraturan Menteri Pendidikan dan Kebudayaan Republik Indonesia Nomor 22 Tahun 2016 tentang Standar Proses Pendidikan Dasar dan Menengah juga telah mendorong pendidik untuk menggunakan media dalam proses pembelajaran. 3. Memenuhi kebutuhan Siswa NO	 Guru merupakan salah satu komponen yang sangat penting dalam pelaksanaan pendidikan dan pengajaran, sebab guru tidak hanya ditugaskan dalam mentransfer pengetahuan kepada peserta didik Tetapi diberikan beban dan tanggung jawab moril untuk memberikan teladan yang baik kepada peserta didik  Peneliti melakukan beberapa metode terkait masalah ini, diantaranya yakni metode yang pada umumnya di lakukan. Yakni metode Kuantitatif, berupa pemberuan tes soal kepada peserta didik. Selain itu penulis mengambil beberapa sampel seperti guru kelas dan beberapa peserta didik kelas III Penulis melakukan pendekatan dengan guru Kelas dan beberapa siswa kelas III untuk mencari tahu tentang bagaimana suasana pembelajaran di kelas tersebut.  Media pembelajaran video dapat digunakan dalam proses pembelajaran untuk membantu atau memberdayakan siswa dalam menawarkan materi dan proyek. Berbagi video ini digunakan secara efektif di sekolah-sekolah di mana fasilitas seperti proyektor dan LCD tersedia.  Dengan mengacu pada kata Allah SWT yang ditemukan dalam Surah An-nahl ayat 125 dalam Al-Qur'an: Media yang memiliki arti perantara atau alat penghubung. Menurut Rayandra Asyar, media pembelajaran secara sistematis dapat menyampaikan atau mengirim pesan dari pihak-pihak dan merupakan lingkungan belajar yang membantu penerimanya untuk melaksanakan proses pembelajaran secara efisien dan efektif. Materi pembelajaran sangat penting dalam pembelajaran karena sulit untuk memahami banyak topik apa yang dimaksud.  Kebutuhan siswa terdiri dari kebutuhan psikologis dan biologis. Dari aspek psikologis, perkembangan inteligensi/ kognitif manusia menurut Piaget terjadi melalui empat tahapan, yaitu: a. Sensori motor (0-2 tahun), yaitu tahap dimana intelligensi/ kognitif anak tampil sebagai respons terhadap sensor indra. b. Praoperasional (2-7 tahun), yaitu tahap dimana inteligensi/ kognitif anak tampil dalam bentuk intuisi (kata hati) dan dan belum berpikir secara rasional. c Operasi konkret (7-11 tahun), yaitu tahap dimana inteligensi/ kognitif anak telah mampu berpikir logis dan rasional terhadap kejadian dan peristiwa yang konkret. d. Operasi formal (12 tahun sampai dewasa), yaitu tahap dimana inteligen/ kognitif anak telah mampu berpikir abstrak, mengajukan hipotesis, dan memprediksi sesuatu Menarik kesimpulan adalah fungsi menarik kesimpulan tentang hasil interpretasi dan evaluasi. Bagian dari pekerjaan ini melibatkan pencarian apa arti data dan menggambarkannya. NO	 Sumber Data: Arsip MIT Insan Cendikia Kota Makassar Jumlah nilai faktor terbaik x faktor Total Nilai	38 Berdasarkan teori Piaget tersebut dapat dipahami bahwa media pembelajaran sangat diperlukan untuk merangsang pikiran dan emosi manusia, khususnya ketia ia berusia di bawah 12 tahun. Selain itu, media pembelajaran dapat digunakan untuk memenuhi kebutuhan minat, jenis kecerdasan, dan preferensi cara belajar siswa. Dalam konteks ini, media dapat digunakan untuk menyederhanakan materi yang kompleks (simpling), memperjelas materi yang abstrak (semantic), mendeskripsikan sesuatu yang tidak terjangkau manipulative), meningkatkan daya imajinasi, dan meningkatkan perhatian siswa. Sebagai contoh, konsep bilangan dapat dijelaskan menggunakan benda nyata, materi sistem tata surya dapat disederhanakan dengan poster ataupun video, letak suatu tempat dapat dideskripsikan dengan globe/peta, peristiwa masa lampau dapat dideskripsikan dengan animasi, dan perhatian siswa dapat ditingkatkan menggunakan gambar yang menarik. Dengan demikian, pendidik tidak cukup hanya sebatas mampu menggunakan berbagai perangkat media, tetapi juga harus mengetahui dan menyadari bagaimana cara menggunakan media tersebut secara bijak, produktif dan positif. Pentingnya peningkatan kemampuan pendidik dalam berkomunikasi lewat media dan memanfaatkan media dalam pembelajaran juga telah dipertegas oleh salinan Peraturan Menteri Pendidikan Nasional Nomor 16 tahun 2007 tentang Standar Kompetensi dan Kualifikasi Guru.  Daftar Nama Guru Mata Pelajaran Di MIT Insan Cendikia Kota Makassar  KELAMIN	PEND. Demikian halnya keberadaan penjaga sekolah yang bertanggungjawab atas keamanan dan ketertiban sekolah, baik pada saat proses pembelajaran berlangsung maupun tidak. Peranan Mereka di MIT Insan Cendikia Kota Makassar ini sangatlah penting, Maka dari itulah perlu ikatan persaudaraan yang kaut antar sesama serta saling membahu untuk membangun MIT Insan Cendikia Kota Makassar ini jauh lebih baik lagi ke depanny</t>
   </si>
   <si>
-    <t>Ini judul</t>
+    <t>B. Rumusan Masalah</t>
   </si>
 </sst>
 </file>
@@ -539,56 +536,53 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
